--- a/src/test/resources/ExcelResultsFolder/Results.xlsx
+++ b/src/test/resources/ExcelResultsFolder/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\IntegrationPSP\Integration\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F3BD49-B028-478C-B3F4-C118A648D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AABDBC-04FE-4414-9064-150092422DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCustomerAndSession" sheetId="25" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Purchase_Result" sheetId="32" r:id="rId3"/>
     <sheet name="EndToEnd_Result" sheetId="33" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Purchase_Result!$A$1:$H$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="247">
   <si>
     <t>ZZ</t>
   </si>
@@ -603,13 +606,194 @@
   </si>
   <si>
     <t>2026-01-19 17:18:30</t>
+  </si>
+  <si>
+    <t>696f65c4447f89b908a44420</t>
+  </si>
+  <si>
+    <t>2026-01-20 16:54:03</t>
+  </si>
+  <si>
+    <t>696f65ef447f89b908a44752</t>
+  </si>
+  <si>
+    <t>2026-01-20 16:54:46</t>
+  </si>
+  <si>
+    <t>696f661c447f89b908a44a7c</t>
+  </si>
+  <si>
+    <t>2026-01-20 16:55:31</t>
+  </si>
+  <si>
+    <t>696f6414447f89b908a43d0a</t>
+  </si>
+  <si>
+    <t>2026-01-20 16:55:50</t>
+  </si>
+  <si>
+    <t>PEN Visa</t>
+  </si>
+  <si>
+    <t>696f727d447f89b908a49ecb</t>
+  </si>
+  <si>
+    <t>MonnetPeru</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>2026-01-20 17:48:18</t>
+  </si>
+  <si>
+    <t>FAIL → Exception occurred during payment flow: invalid session id
+Build info: version: '4.38.0', revision: '6b412e825c*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e540699203ce1d38c7b59fe5f5b375b5, getCurrentUrl {}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 144.0.7559.60, chrome: {chromedriverVersion: 144.0.7559.31 (18537d992890..., userDataDir: C:\Users\LENOVO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52837}, goog:processID: 21636, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52837/devtoo..., se:cdpVersion: 144.0.7559.60, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e540699203ce1d38c7b59fe5f5b375b5</t>
+  </si>
+  <si>
+    <t>697076ac2ef235f57450e2a5</t>
+  </si>
+  <si>
+    <t>2026-01-21 12:27:25</t>
+  </si>
+  <si>
+    <t>2026-01-21 12:27:44</t>
+  </si>
+  <si>
+    <t>697079f32ef235f57450f31c</t>
+  </si>
+  <si>
+    <t>2026-01-21 12:32:55</t>
+  </si>
+  <si>
+    <t>2026-01-21 12:33:34</t>
+  </si>
+  <si>
+    <t>2026-01-21 12:33:53</t>
+  </si>
+  <si>
+    <t>INR Visa</t>
+  </si>
+  <si>
+    <t>69708cc3dc3ea4f3be68647a</t>
+  </si>
+  <si>
+    <t>Payu</t>
+  </si>
+  <si>
+    <t>2026-01-21 13:53:05</t>
+  </si>
+  <si>
+    <t>69708d24dc3ea4f3be6867a2</t>
+  </si>
+  <si>
+    <t>2026-01-21 13:54:47</t>
+  </si>
+  <si>
+    <t>69709075dc3ea4f3be687dcd</t>
+  </si>
+  <si>
+    <t>zaakpay</t>
+  </si>
+  <si>
+    <t>2026-01-21 14:08:35</t>
+  </si>
+  <si>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>69709728dc3ea4f3be688871</t>
+  </si>
+  <si>
+    <t>2026-01-21 14:37:34</t>
+  </si>
+  <si>
+    <t>user.name@example.com</t>
+  </si>
+  <si>
+    <t>6970977adc3ea4f3be688bb0</t>
+  </si>
+  <si>
+    <t>2026-01-21 14:38:54</t>
+  </si>
+  <si>
+    <t>69709803dc3ea4f3be6890fe</t>
+  </si>
+  <si>
+    <t>2026-01-21 14:41:09</t>
+  </si>
+  <si>
+    <t>6970a3d5697ce6cbdbdaaa2a</t>
+  </si>
+  <si>
+    <t>2026-01-21 15:31:17</t>
+  </si>
+  <si>
+    <t>6970a43a697ce6cbdbdab6d6</t>
+  </si>
+  <si>
+    <t>2026-01-21 15:33:06</t>
+  </si>
+  <si>
+    <t>6970a473697ce6cbdbdaba2d</t>
+  </si>
+  <si>
+    <t>2026-01-21 15:33:57</t>
+  </si>
+  <si>
+    <t>user_name@example.com</t>
+  </si>
+  <si>
+    <t>6970a4a4697ce6cbdbdabf7d</t>
+  </si>
+  <si>
+    <t>2026-01-21 15:34:44</t>
+  </si>
+  <si>
+    <t>user-name@example.com</t>
+  </si>
+  <si>
+    <t>6970a4d3697ce6cbdbdac2fc</t>
+  </si>
+  <si>
+    <t>2026-01-21 15:35:30</t>
+  </si>
+  <si>
+    <t>user123@example.com</t>
+  </si>
+  <si>
+    <t>6970a500697ce6cbdbdac85f</t>
+  </si>
+  <si>
+    <t>2026-01-21 15:36:15</t>
+  </si>
+  <si>
+    <t>user+promo@example.com</t>
+  </si>
+  <si>
+    <t>6970a52d697ce6cbdbdacbb2</t>
+  </si>
+  <si>
+    <t>2026-01-21 15:37:04</t>
+  </si>
+  <si>
+    <t>6970bcc8941804fc1009d8ba</t>
+  </si>
+  <si>
+    <t>2026-01-21 17:17:51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,289 +805,582 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +1397,16 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -933,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,6 +1564,126 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1389,556 +1996,556 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" customWidth="true" width="20.90625"/>
+    <col min="3" max="3" customWidth="true" width="23.453125"/>
+    <col min="4" max="4" customWidth="true" width="31.36328125"/>
+    <col min="5" max="5" customWidth="true" width="32.453125"/>
+    <col min="6" max="6" customWidth="true" width="22.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>86</v>
       </c>
     </row>
@@ -1949,23 +2556,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C733E1C6-DAE9-421F-A1F0-33C4057E5463}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="5" max="5" width="31.81640625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.1796875"/>
+    <col min="2" max="2" customWidth="true" width="18.7265625"/>
+    <col min="3" max="3" customWidth="true" width="19.6328125"/>
+    <col min="4" max="4" customWidth="true" width="43.26953125"/>
+    <col min="5" max="5" customWidth="true" width="31.81640625"/>
+    <col min="6" max="6" customWidth="true" width="19.0"/>
+    <col min="7" max="7" customWidth="true" width="17.0"/>
+    <col min="8" max="8" customWidth="true" width="23.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1995,583 +2602,791 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2581,23 +3396,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151FB470-380C-4D89-8F72-14A7B915D5E8}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="71.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.81640625"/>
+    <col min="2" max="2" customWidth="true" width="17.6328125"/>
+    <col min="3" max="3" customWidth="true" width="17.0"/>
+    <col min="4" max="4" customWidth="true" width="71.26953125"/>
+    <col min="5" max="5" customWidth="true" width="28.90625"/>
+    <col min="6" max="6" customWidth="true" width="18.7265625"/>
+    <col min="7" max="7" customWidth="true" width="16.54296875"/>
+    <col min="8" max="8" customWidth="true" width="20.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2627,127 +3442,326 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>68</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>68</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2757,23 +3771,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.453125"/>
+    <col min="2" max="2" customWidth="true" width="20.36328125"/>
+    <col min="3" max="3" customWidth="true" width="16.6328125"/>
+    <col min="4" max="4" customWidth="true" width="25.7265625"/>
+    <col min="5" max="5" customWidth="true" width="28.1796875"/>
+    <col min="6" max="6" customWidth="true" width="16.54296875"/>
+    <col min="7" max="7" customWidth="true" width="18.0"/>
+    <col min="8" max="8" customWidth="true" width="21.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2803,445 +3817,653 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="G17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
